--- a/Test Cases/Negative Test Cases/Register Test Suite.xlsx
+++ b/Test Cases/Negative Test Cases/Register Test Suite.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
   <si>
     <t>Iteration 1</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>Error "Please enter Email" appears</t>
+  </si>
+  <si>
+    <t>Test Case № 6</t>
+  </si>
+  <si>
+    <t>2. In the Email adress field write valid address for existing user</t>
+  </si>
+  <si>
+    <t>3. In the Password field write valid User Password for existing user</t>
+  </si>
+  <si>
+    <t>Error "Email already exists" appears</t>
   </si>
 </sst>
 </file>
@@ -110,15 +122,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -126,12 +144,157 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +390,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +613,7 @@
     <col min="4" max="4" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,273 +622,392 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Test Cases/Negative Test Cases/Register Test Suite.xlsx
+++ b/Test Cases/Negative Test Cases/Register Test Suite.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
   <si>
     <t>Iteration 1</t>
   </si>
@@ -107,16 +107,26 @@
   </si>
   <si>
     <t>Error "Email already exists" appears</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,7 +297,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -295,6 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,7 +400,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -601,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,15 +632,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -639,63 +651,65 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -704,63 +718,65 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="10"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -769,63 +785,65 @@
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="10"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -834,63 +852,65 @@
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="8" t="s">
+      <c r="C31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="10"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -899,63 +919,65 @@
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="C39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="10"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="10" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -964,53 +986,54 @@
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="C47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Cases/Negative Test Cases/Register Test Suite.xlsx
+++ b/Test Cases/Negative Test Cases/Register Test Suite.xlsx
@@ -132,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,7 +302,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -304,7 +309,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,7 +618,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,17 +638,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -651,65 +657,65 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -718,65 +724,65 @@
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -785,65 +791,65 @@
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -852,65 +858,65 @@
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="C31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -919,65 +925,65 @@
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="C39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -986,49 +992,49 @@
       <c r="C43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>30</v>
       </c>
     </row>
